--- a/500all/speech_level/speeches_CHRG-114hhrg21647.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21647.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. The subcommittee will come to order. I want to thank the witnesses from the Government Accountability Office, the Department of Veterans Affairs [VA], and the General Services Administration [GSA] for being here today.    The purpose of today's hearing is to make sure medical facilities are delivered quickly and cost effectively so that our veterans can receive the medical care that they require. Now, the Transportation and Infrastructure Committee is involved because the Public Buildings Act requires all leases over $2.85 million to be authorized by our committee and the Senate Environment and Public Works Committee.    Now, GSA can delegate this leasing authority to other agencies, but it cannot waive the requirement for congressional authorization. Providing quality health care to our veterans is my top concern. Our men and women in uniform put their lives on the line to protect our country and our freedoms. Medical facilities, whether owned or leased, are a critical part of delivering healthcare services. Unfortunately, the VA has struggled greatly to require health care facilities on time, on budget, and in compliance with the law.    The VA's new Colorado hospital is so far over budget and behind schedule that the Army Corps of Engineers has had to take over management of the project. And the VA's leasing program has been too slow and out of compliance with the Public Buildings Act and the most basic Government accounting rules.    Both the GAO and the VA inspector general have detailed a history of VA's mismanagement of its real estate. In fact, in a 2012 letter from the House Veterans' Affairs Committee to the VA, the committee expressed concerns about the ways that the VA's seven healthcare clinic leases passed in 2009. In 2013, the inspector general reported VA's management of timeliness and costs in the healthcare clinic lease procurement process has not been effective.    On top of all this, the Congressional Budget Office at OMB raised serious questions about how the VA has been accounting and budgeting for these leases. Unfortunately, as highlighted at our July hearing, many agencies with leasing authority, outside of GSA, do not understand the legal limits of their authority. We have seen agencies like the SEC and the Commodity Futures Trading Commission find themselves in serious trouble because of this. Exceeding the legal limitations can result in Anti-Deficiency Act violations, which have criminal penalties and significant project delays.    In 2013 and 2014, OMB raised serious questions whether the VA had, in fact, exceeded its leasing authority. As a result, the administration directed the GSA to step in. GSA must ensure the VA's leases are properly authorized and do not violate the Anti-Deficiency Act.    On September 12, 2014, the committee officially received a letter from the VA requesting approval of six leases for their healthcare clinics, recognizing projects over GSA's threshold of $2.85 million required this committee's approval. The committee approved them 5 days later despite having to gather updated information to evaluate costs.    It has now been 2 years since this committee approved those six leases, and we have not received any new prospectuses for healthcare clinics since then. We understand there are eight additional leases requiring our authorization that were included among the 27 leases in the 2014 Choice Act. Because of this committee's role in approving these leases, the committee, along with the Veterans' Affairs Committee, requested GAO conduct a review of the VA healthcare clinic leasing.    Specifically, the GAO examined a few key areas. One, the criteria VA uses to determine whether to lease or own medical facilities. Two, the accuracy of VA's cost estimates for projects. And, three, how the VA is aligning its leasing process with that of the GSA.    Today, we want to hear what improvements have been made and what still needs to be done to make sure that the VA medical leases are cost effective and comply with the law.    We also want to receive updates on the previous six projects we authorized in 2014 and a timetable on when we will receive the additional eight. With all the issues the VA is grappling with to ensure our veterans are served in a timely manner, the VA should take full advantage of the opportunity to leverage GSA's real estate expertise.    I look forward to hearing more from our witnesses on these issues. Thank you.    I now call on the ranking member. Before that, I ask unanimous consent that Members not on this subcommittee be permitted to sit with the subcommittee at today's hearing, offer testimony, and ask questions. So be it.    And now I call on the ranking member of the subcommittee, Mr. Carson, for a brief opening statement.</t>
   </si>
   <si>
     <t>412258</t>
   </si>
   <si>
-    <t>André Carson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman Barletta, and thank you for your leadership.    Prior to 2014, the VA used their own real estate authority to sign leases for medical facilities. However, the VA in consultation with the Office of Management and Budget, later determined that it did not have legal authority necessarily to enter into multiyear leases. The VA now relies on GSA's authority to execute these leases. In 2014, this committee approved six prospectuses submitted by GSA on behalf of the VA. These six medical facility leases were the first of their kind to be approved by the committee.    Now, typically, these facilities include mental health clinics, readjustment counseling centers, research, and other types of clinical spaces. Because the VA is working with the GSA to execute these leases, they have now come before this committee for approval. Although we approved the first six leases, Chairman Barletta and I and members of the Veterans' Affairs Committee thought it was appropriate to request GAO's study to the VA's choices in managing its real property assets.    While we want to support the VA's efforts to provide essential health care to our country's veterans, it is also important that this committee have some assurances that the VA is managing its real estate assets as efficiently as possible. Every dollar saved in a real estate transaction is a dollar that can be redirected to supportive services for veterans, an important priority for every Member of Congress.    I look forward to today's testimony from the VA, GSA, and GAO on how this program is being managed and how improvements can be made going forward.    Thank you, Chairman. I yield back.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Shea</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Shea. Thank you. Good morning, Chairman Barletta, Ranking Member Carson, and members of the subcommittee. I am pleased to be here today to talk about GAO's review of VA's practices for leasing major medical facilities. VA operates the largest healthcare network in the U.S. with over 2,700 facilities, nearly half of which are leased. Many of VA's facilities are aging, and to replace them and expand access to veterans, VA has increasingly turned to leasing rather than construction and ownership to provide these important services to veterans.    Over the past 10 years, the number of medical facilities leased by VA grew to just under 1,300 facilities, 57 of these were major medical facility leases, spaces with average annual rent in excess of $1 million.    Today, I will discuss our June 2016 report, the focused on factors affecting VA's decisions, cost estimating process, and alignment with GSA requirements.    Turning, first, to the factors effecting VA's leasing decisions, we found that VA leases major medical facilities, because leasing can more quickly result in a finished facility and because it provides VA flexibility to relocate at the end of the lease term, which is limited to 20 years. In fact, VA cited flexibility to move in all of its major medical lease proposals since 2015, including some in which VA estimated the construction of its own facility would be less costly.    According to VA, moving supports changing priorities such as meeting requirements for veterans access and changing security and compliance standards. As we have noted in our past work, disposing of federally owned facilities can be difficult, suggesting a certain level of support for VA's argument for this flexibility. However, VA does not assess whether or how it has actually benefited from this flexibility when justifying its leases.    In our June report, we recommended that VA annually assess how it has used the flexibility afforded by leasing and provide this information to Congress in its annual budget submission. Doing so would enhance the transparency of VA's decisionmaking and provide Congress with important information it needs for authorizing and funding decisions. VA agreed and plans to do this moving forward.    Turning to VA's cost estimating process for leases, we found VA's process met several but not all of GAO's standards for reliable cost estimates.    In particular, VA's process was comprehensive and well-documented, but it did not account for common and sometimes large variations between the estimate and actual facility cost. In fact, for 18 of the 23 leases we reviewed, the actual lease costs were at a minimum 15 percent above or below the initially proposed lease cost usually because of changes to proposed design.    For example, actual cost for VA's San Francisco facility were 26 percent over the estimated cost while actual cost for the Montgomery, Alabama, facility were 44 percent below the original estimate. Providing Congress with more accurate estimates would support its authorization in funding decisions.    Accordingly, VA recently issued a new design guide to reduce the risk of changes after proposing leases to Congress as well as a lessons-learned study to identify improvements for its cost estimating process. However, it is still early, and the success of these initiatives or leases currently in the pipeline will depend on how well VA implements them.    Lastly, we found that VA has made progress meeting GSA requirements for delegated leasing authority. For example, as a result of VA's new training and management review process, GSA is now able to approve VA's proposals more quickly. However, few of VA's high-cost leases have gone through GSA's approval process, and their complexity can make it more difficult to align with GSA's requirements.    In closing, VA should begin implementing our recommendations by collecting the information it needs to assess how it has used the flexibilities afforded by leasing. Doing so will enhance the transparency of VA's decisionmaking process and provide both VA and Congress with data to make the most informed decisions.    VA should also monitor whether its recent changes such as the design guide, lesson learned, and management review process are working as intended so they can make timely adjustments if necessary.    Thank you, Mr. Chairman. This ends my prepared statement, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony.    Mr. Sullivan, you may proceed.</t>
   </si>
   <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sullivan. Good morning, Mr. Chairman Barletta, Ranking Member Carson, and members of the subcommittee. I am happy to be here today to discuss how VA provides critically needed healthcare services to veterans through a wide variety of leased facilities. The Department maintains approximately 155 million square feet in more than 6,000 owned buildings as well as 33,000 acres of land. In addition to our own facilities, VA has approximately 2,000 leased facilities totaling 25 million square feet.    VA's portfolio is one of the largest in the Federal Government and provides a significant amount of health care to veterans in these leased facilities. In our leased facilities, we provide primary care, mental health, and specialty services, such as ophthalmology, oncology, endocrinology, cardiology, pulmonology, podiatry, neurology, just to name a few.    We also provide pharmacy services, radiology and imaging and same-day outpatient surgery in some of our larger clinics.    Today, I ask for your support to help provide these services to our veterans. VA is requesting the committee's approval of eight pending leases that represent an additional capacity over 1.2 million annual visits to these clinics for our veterans. These eight leases are needed to ensure that VA has the right sized facilities in place to serve veterans with the right services and in the right locations where veterans want them.    Leasing is a critically important tool that allows VA to provide services to veterans. Leasing provides flexibility in lieu of constructing owned assets to meet veterans needs. Leasing enables VA to quickly respond to healthcare advances and to adopt important--more importantly, to changing medical technology in order to provide state-of-the-art health care to veterans. Meeting the ever-changing pace of medical advancement is a constant challenge for any medical system, and VA finds that leasing versus owning provides one of the most flexible approaches to meet that challenge. Leasing also allows us to rapidly adjust to current and future demographic shifts in changing service demands for our veterans.    VA clearly doesn't need more owned legacy assets to address our outpatient access needs. We have enough of old and obsolete facilities, we do not want to add any more to our current portfolio.    For leasing, VA has the ability when these assets become unneeded or obsolete or do not meet current medical practices to walk away at the end of the lease term. In addition to these 8 leases we are requesting the committee's action on, VA has 24 additional medical leases that are pending congressional action. These critically needed leases will replace, expand, or create new outpatient clinics, research facilities, and provide more than 2.7 million more annual healthcare visits for our veterans and enhance our research capabilities nationwide.    As VA works to meet the challenge of addressing these changing and ongoing demand of health care, these leases, both the eight we mentioned earlier on and the 24, will go a great way to help meet these needs.    As you were aware, VA relies on the authority and has for the last 20 years that is delegated from GSA to enter into all lease agreements. VA depends on its partnership with GSA to obtain individual delegations, to make operating leases feasible to provide services. Our agencies have worked to make improvements, and the delegation process has evolved over the last 2 years.    I want to thank GSA for their partnership and their help in having us move forward with these leases and to provide services to our veterans. They have been more than a willing partner in this effort.    VA is also pleased that GAO in its 2016 report recognized the important need for medical leasing and the flexibility that leasing provides VA. As stated in the report, GAO recognized that leasing allows VA to align its infrastructure more easily with changing healthcare needs. The report highlights some of the improvements VA has made while operating under the GSA lease delegation process and suggests other agencies can implement other processes.    VA fully plans to address the GAO recommendations in terms of further articulating in our budget submissions to Congress via advantages of the flexibility leasing provides, as well as addressing some of the technical recommendations involving cost estimating.    We have agreed to do that and are working with the lessons learned effort to implement and consult with GAO as we implement those recommendations.    As VA works to move the pending leases forward, VA is open to any and all suggestion from the committee or from anyone else of how we can improve your process so we can speed the delivery of healthcare services to our veterans and their families.    I am here with my colleagues to answer any question that you may have or any member of the committee may have. Thank you for your time, and we appreciate the committee's support for our veterans and their needs.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you. Thank you for your testimony.    Mr. Wisner, you may proceed.</t>
   </si>
   <si>
-    <t>Wisner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wisner. Yes, sir.    Good morning, Chairman Barletta, Ranking Member Carson, and members of the committee. I am Chris Wisner, the Assistant Commissioner for Leasing at the General Services Administration Public Buildings Service. I appreciate being invited here today to discuss GSA's efforts to provide cost effective and suitable leased space for our partner Federal agencies including the Department of Veterans Affairs.    GSA's mission is to provide the best value in real estate to the Government and to the American people. GSA currently manages an inventory of almost 400 million square feet. Approximately half of this is leased space comprising more than 8,300 active leases across the country. GSA seeks to provide space that assists our partner agencies in achieving their missions while best serving the public interest. GSA's prospectus process starts with requirements development where GSA works with customer agencies to define their space needs. As part of the administration's goal to maximize the use of Federal assets and eliminate unneeded and excess real estate, GSA first looks to the existing Federal inventory of owned and leased space to meet those needs. If existing space is not available, GSA determines whether Federal construction or leasing is the appropriate space delivery method. This determination balances the mission needs of the customer, market parameters, resources constraints, and fiscal responsibility to the public.    If leasing is the chosen alternative, GSA continues to work with partner agencies to further define its program requirements, which includes a comprehensive housing plan, identification of delineated area, and an estimated space utilization rate. The prospectus process also requires market research to establish rental rates. GSA conducts its procurements using prevailing market rates as the benchmark for the evaluation of competitive offers to ensure that GSA rates are in line with the private sector.    After we complete this thorough process, GSA submits a prospectus and supporting documents for projects that exceed $2.85 million.    In 2014, the VA began relying exclusively on GSA's delegated authority to conduct its leasing activities. Some of the VA's request for delegated leasing authority are above the GSA's prospectus threshold. GSA will submit prospectuses to this committee and to the Senate Environment and Public Works Committee.    The initial delegation request from VA required a number of revisions to comply with GSA's delegation program requirements both in form and substance. As delegation requests above GSA's prospectus threshold were not within the normal delegation program management, there was no standing GSA process for considering such an authorization. GSA and the VA have worked together to ensure VA's documents are in line with similar GSA prospectus submissions.    GSA supports VA's mission to provide assistance to veterans and their families. From June of 2014 to September of 2016, GSA has granted the VA 761 leased delegations, of which 96 percent have been granted routinely under GSA's standing delegation program. Only 4 percent, or 27 of those delegated leases, have exceeded the square foot limitation that requires action by the GSA Administrator. Only 6 of those 27 exceed the $2.87 million prospectus threshold.    The Choice Act was enacted in 2014 to provide new authorities and funding to continue VA's mission, including statutorily authorizing the Secretary of Veterans Affairs to lease medical facilities in 18 States and Puerto Rico. Out of these 27, there are 8 remaining that are above GSA prospectus threshold. The committee's help is needed in providing GSA with resolutions for those projects, and we plan to submit this package in the upcoming weeks.    As we move forward in our partnership, VA and GSA are working closely to ensure VA projects comply with GSA's policies and practices. With VA's expertise, discipline and structure can be applied to market rate justification for VA prospectuses. Furthermore, as part of strategic planning, VA and GSA can identify opportunities for VA to backfill existing underutilized and vacant space instead of initiating new leased actions.    Chairman Barletta, Ranking Member Carson, and members of the subcommittee, GSA is dedicated to meeting the requirements of all of our partner agencies in an efficient, transparent, and user-friendly manner. We will continue to support the VA in their mission of providing assistance to veterans and their families.    Thank you for the opportunity to testify before you today, and I am happy to answer any questions.</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank you for your leadership.    Thank you each of you for being here.    So, Mr. Sullivan, let me come to you, because I guess I am a little confused when Ms. Shea says that the flexibility is a big issue for you signing up for leases. And yet, you have not, to date, provided that kind of information.</t>
   </si>
   <si>
@@ -247,9 +229,6 @@
     <t xml:space="preserve">    Mr. Barletta. And that is why we have to reform our disposal rules, and we have that in our bill. And the second thing is we also in our bill have a discounted purchase option which would allow you to buy, so I think they are very good points by Mr. Meadows.    The Chair now recognizes Ms. Brownley for 5 minutes.</t>
   </si>
   <si>
-    <t>Brownley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman. I appreciate it. Thank you. And thank you, Ranking Member Carson, for allowing me to participate in this morning's hearing.    As the ranking member of the House Committee on Veterans' Affairs Subcommittee on Health, I have been working for several years now to address problems in the VA's construction and leasing program. As we all know, changes in CBO's scoring have made it incredibly difficult for the VA Committee to authorize new facilities. This is not only frustrating to me as a Member of Congress, but it is having a very negative impact on veterans who are underserved.    This is not just about better access, but it is truly a clarion call for equitable access for all of our veterans. I have brought a list today that I would love to share with the committee of 24 leases still caught in limbo for fiscal year 2015 and fiscal year 2017. These are 24 communities in 15 different States all across the country where veterans are underserved and where veterans sorely need better access to health care and are not receiving it. I am frustrated that Congress has not yet resolved this issue that has dragged on for several years now, an issue I think is a moral imperative and unquestionably an equity issue.    I have introduced legislation to permanently fix this problem and to harmonize the VA leasing process with the GSA leasing process. This small procedure will make a big difference in the lives of veterans who are waiting for and rightfully deserve better access to care.    That brings me to my first question. Last year, the VA Committee held a hearing on my bill, the Build a Better VA Act. At the time, VA was not prepared to answer specific questions regarding the administration's position on the bill. My bill has been endorsed by several VSO's and the Commission on Care has identified this as an area that needs to be addressed by the VA.    So, Mr. Sullivan, has the VA now had time to review my bill, and does the VA support this approach? And if you don't, what is the VA's proposed long-term solution to addressing this ongoing problem that we have with authorizing the facilities?</t>
   </si>
   <si>
@@ -277,9 +256,6 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    Before I got here, I used to be a real estate lawyer, and I used to negotiate leases. And it was not necessarily a fun endeavor, but I did learn that it is very value added. And I do think that the questions today are largely oriented towards improving the efficacy of the leasing process, and that is what we want to see. We just don't want to see us paying more money than we should pay in a lease. And I think we also want a cleaner analysis on, to Mr. Meadows's point, the valuation between an outright purchase and--or build to suit versus a 20-year lease.    And in looking, Ms. Shea, at your analysis here, it strikes me that the issue that the VA is deficient in, relative to this analysis, comes under the credible characteristic and, most specifically, the conduct risk and uncertainty analysis.    And I find that to be consistent with the conclusion without analysis criticism that we say, oh, it provides more flexibility and so, therefore, we should do it. I happen to think that it, in a lot of instances, leasing a medical facility probably is the more prudent cost, because unlike a lot of other real estate assets and office building, certainly raw ground, with a medical facility, there is a functional obsolescence after 20 years. And that you do run into negative equity much quicker. I mean, in my home township, we have an old mental health facility that, you know, 20 years later it was still there, and it was negative $8 million on an appraisal.    So for Mr. Sullivan, what I would like to hear from you is what do you intend to do to address the shoring up the risk and uncertainty analysis, which I think will go a long way toward addressing Ms. Shea's report where the VA is deficient? The other question that I would have for you, Mr. Sullivan, is contained on page 10 of Ms. Shea's report which references the fact that the VA plans to conduct a, quote, ``lessons-learned study that could further improve how VA estimates its costs.''    And the final point I would make, and then I will turn it over to all of you, is those of us who serve on the VA Committee, and I think even beyond that, the delivery model for caring for veterans is changing very rapidly, telehealth. We have a facility in my district where a lot more is done that way. And we look at the way e-health is able to provide services. It just doesn't require as much physical space. And some of it is space that once built can remain flex space.    So I would ask for your take on that. And I think that that is part of the risk that I mentioned.    And in the final question I have for you, Mr. Sullivan--I am sort of doing it all at once is, the report that McKinsey issued in 2015 found that for larger built-to-suit medical facilities, VA rents were 40 to 50 percent higher than private sector benchmarks. I think that that brings back into the fold of Mr. Meadows's point on, well, why don't we just do a build--I mean, why not build to suit and own it if you are going to be paying 40 to 50 percent higher? It is one thing if at the end of 15 or 20 years, it's like, OK. We paid for it, and now we are at zero and we have a facility, and maybe it is worth something, maybe it is not. It is a whole other thing when you are paying 40 to 50 percent over and above.    Then the final point, I am not so keen on--I mean, we have enough examples on the VA Committee where VA construction projects end up a whole heck a lot higher than they should, which I think, points again, to leasing versus building. If it is a 50-50 proposition, I think I would probably lean towards the leasing.    I have said a lot. I turn it over to you for your comments on my comments.</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>412641</t>
   </si>
   <si>
-    <t>David Rouzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rouzer. Thank you very much, Mr. Chairman.    And I want to follow up on my colleague, Representative Costello's questions and your answer there.    I have a specific case, in Wilmington, North Carolina, where we have our Wilmington VA clinic, basically, a brand new building. There is a lot of concern among constituents and my veterans in particular, about the--what they feel is an outrageous figure that we are paying for that space, roughly to the tune of $300,000 a month.    Now, I heard your answer there at the very end to Representative Costello where you are saying--when you compare the prime medical space elsewhere, it is not necessarily apples to apples, perhaps apples to oranges. But when you consider the fact that it is $300,000 a month, and the vast majority of my constituents, they are probably thinking in terms of a 30-year mortgage, and that is far and above the average 30-year mortgage in my district. So there are a lot of questions about, you know, how do we negotiate these leases, and are we just absolutely being raked over the coals with this?    So if you can elaborate more on how you go through what that process actually is.    And I am curious where GSA fits into this. Who actually negotiates the lease? Is it GSA and with--in consultation with the VA, or is it the VA with advice from GSA? If you can explain how that works, I would be interested.</t>
   </si>
   <si>
@@ -344,9 +317,6 @@
   </si>
   <si>
     <t>412503</t>
-  </si>
-  <si>
-    <t>Thomas Massie</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman. Last week Chairman Mica had a good hearing about property and assets and how difficult it is for us to dispose of them or turn them over back to the private sector, so I can definitely see the benefits of leasing, but I left that hearing with a question and I still have that question in this hearing--it seems to be coming up--which is how good is our database of properties, leased and owned? Because some of the questions we are asking today we could answer ourselves if we could get on a computer and just query the database. We wouldn't even have to show up to get some of these apples and oranges questions answered. We could go into that database.    Mr. Sullivan, let me ask you first. How close are we to having a full database of all the properties that, for instance, congressional staff could look at?</t>
@@ -850,11 +820,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -874,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -902,11 +868,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -926,13 +890,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -954,11 +916,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -978,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1006,11 +964,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1030,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1058,11 +1012,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1082,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1110,11 +1060,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1134,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1160,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1188,11 +1132,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1212,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1240,11 +1180,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1264,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1292,11 +1228,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1316,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1342,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1368,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1394,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1420,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1446,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1472,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1498,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1524,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1552,11 +1468,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1576,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1602,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1628,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1654,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1680,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1706,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1732,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1758,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1784,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1810,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1836,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1862,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1888,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1914,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1940,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1966,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1992,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2018,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2044,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2070,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2096,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2122,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2148,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2174,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2200,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2226,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2252,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2280,11 +2140,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2304,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2330,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2356,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2382,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2408,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2434,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2460,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>77</v>
-      </c>
-      <c r="H64" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2488,11 +2332,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2512,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2538,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2564,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2590,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2616,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2642,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2668,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>86</v>
-      </c>
-      <c r="G72" t="s">
-        <v>87</v>
-      </c>
-      <c r="H72" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2694,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2720,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s">
-        <v>87</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2748,11 +2572,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2772,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2798,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2824,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2850,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2876,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2902,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2928,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2954,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
         <v>98</v>
-      </c>
-      <c r="G83" t="s">
-        <v>99</v>
-      </c>
-      <c r="H83" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2982,11 +2788,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3006,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3032,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3058,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3084,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3110,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3136,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3162,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3188,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3214,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>109</v>
-      </c>
-      <c r="G93" t="s">
-        <v>110</v>
-      </c>
-      <c r="H93" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3240,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3266,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3294,11 +3076,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3318,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3346,11 +3124,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3370,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3396,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3422,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3450,11 +3220,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3474,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3500,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3526,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3552,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3580,11 +3340,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3604,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>98</v>
-      </c>
-      <c r="G108" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3630,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3656,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>98</v>
-      </c>
-      <c r="G110" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3682,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3708,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>98</v>
-      </c>
-      <c r="G112" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3734,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3760,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>98</v>
-      </c>
-      <c r="G114" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3786,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3812,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>98</v>
-      </c>
-      <c r="G116" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3838,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3864,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>98</v>
-      </c>
-      <c r="G118" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3892,11 +3628,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21647.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21647.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barletta. The subcommittee will come to order. I want to thank the witnesses from the Government Accountability Office, the Department of Veterans Affairs [VA], and the General Services Administration [GSA] for being here today.    The purpose of today's hearing is to make sure medical facilities are delivered quickly and cost effectively so that our veterans can receive the medical care that they require. Now, the Transportation and Infrastructure Committee is involved because the Public Buildings Act requires all leases over $2.85 million to be authorized by our committee and the Senate Environment and Public Works Committee.    Now, GSA can delegate this leasing authority to other agencies, but it cannot waive the requirement for congressional authorization. Providing quality health care to our veterans is my top concern. Our men and women in uniform put their lives on the line to protect our country and our freedoms. Medical facilities, whether owned or leased, are a critical part of delivering healthcare services. Unfortunately, the VA has struggled greatly to require health care facilities on time, on budget, and in compliance with the law.    The VA's new Colorado hospital is so far over budget and behind schedule that the Army Corps of Engineers has had to take over management of the project. And the VA's leasing program has been too slow and out of compliance with the Public Buildings Act and the most basic Government accounting rules.    Both the GAO and the VA inspector general have detailed a history of VA's mismanagement of its real estate. In fact, in a 2012 letter from the House Veterans' Affairs Committee to the VA, the committee expressed concerns about the ways that the VA's seven healthcare clinic leases passed in 2009. In 2013, the inspector general reported VA's management of timeliness and costs in the healthcare clinic lease procurement process has not been effective.    On top of all this, the Congressional Budget Office at OMB raised serious questions about how the VA has been accounting and budgeting for these leases. Unfortunately, as highlighted at our July hearing, many agencies with leasing authority, outside of GSA, do not understand the legal limits of their authority. We have seen agencies like the SEC and the Commodity Futures Trading Commission find themselves in serious trouble because of this. Exceeding the legal limitations can result in Anti-Deficiency Act violations, which have criminal penalties and significant project delays.    In 2013 and 2014, OMB raised serious questions whether the VA had, in fact, exceeded its leasing authority. As a result, the administration directed the GSA to step in. GSA must ensure the VA's leases are properly authorized and do not violate the Anti-Deficiency Act.    On September 12, 2014, the committee officially received a letter from the VA requesting approval of six leases for their healthcare clinics, recognizing projects over GSA's threshold of $2.85 million required this committee's approval. The committee approved them 5 days later despite having to gather updated information to evaluate costs.    It has now been 2 years since this committee approved those six leases, and we have not received any new prospectuses for healthcare clinics since then. We understand there are eight additional leases requiring our authorization that were included among the 27 leases in the 2014 Choice Act. Because of this committee's role in approving these leases, the committee, along with the Veterans' Affairs Committee, requested GAO conduct a review of the VA healthcare clinic leasing.    Specifically, the GAO examined a few key areas. One, the criteria VA uses to determine whether to lease or own medical facilities. Two, the accuracy of VA's cost estimates for projects. And, three, how the VA is aligning its leasing process with that of the GSA.    Today, we want to hear what improvements have been made and what still needs to be done to make sure that the VA medical leases are cost effective and comply with the law.    We also want to receive updates on the previous six projects we authorized in 2014 and a timetable on when we will receive the additional eight. With all the issues the VA is grappling with to ensure our veterans are served in a timely manner, the VA should take full advantage of the opportunity to leverage GSA's real estate expertise.    I look forward to hearing more from our witnesses on these issues. Thank you.    I now call on the ranking member. Before that, I ask unanimous consent that Members not on this subcommittee be permitted to sit with the subcommittee at today's hearing, offer testimony, and ask questions. So be it.    And now I call on the ranking member of the subcommittee, Mr. Carson, for a brief opening statement.</t>
   </si>
   <si>
     <t>412258</t>
   </si>
   <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman Barletta, and thank you for your leadership.    Prior to 2014, the VA used their own real estate authority to sign leases for medical facilities. However, the VA in consultation with the Office of Management and Budget, later determined that it did not have legal authority necessarily to enter into multiyear leases. The VA now relies on GSA's authority to execute these leases. In 2014, this committee approved six prospectuses submitted by GSA on behalf of the VA. These six medical facility leases were the first of their kind to be approved by the committee.    Now, typically, these facilities include mental health clinics, readjustment counseling centers, research, and other types of clinical spaces. Because the VA is working with the GSA to execute these leases, they have now come before this committee for approval. Although we approved the first six leases, Chairman Barletta and I and members of the Veterans' Affairs Committee thought it was appropriate to request GAO's study to the VA's choices in managing its real property assets.    While we want to support the VA's efforts to provide essential health care to our country's veterans, it is also important that this committee have some assurances that the VA is managing its real estate assets as efficiently as possible. Every dollar saved in a real estate transaction is a dollar that can be redirected to supportive services for veterans, an important priority for every Member of Congress.    I look forward to today's testimony from the VA, GSA, and GAO on how this program is being managed and how improvements can be made going forward.    Thank you, Chairman. I yield back.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Shea</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Shea. Thank you. Good morning, Chairman Barletta, Ranking Member Carson, and members of the subcommittee. I am pleased to be here today to talk about GAO's review of VA's practices for leasing major medical facilities. VA operates the largest healthcare network in the U.S. with over 2,700 facilities, nearly half of which are leased. Many of VA's facilities are aging, and to replace them and expand access to veterans, VA has increasingly turned to leasing rather than construction and ownership to provide these important services to veterans.    Over the past 10 years, the number of medical facilities leased by VA grew to just under 1,300 facilities, 57 of these were major medical facility leases, spaces with average annual rent in excess of $1 million.    Today, I will discuss our June 2016 report, the focused on factors affecting VA's decisions, cost estimating process, and alignment with GSA requirements.    Turning, first, to the factors effecting VA's leasing decisions, we found that VA leases major medical facilities, because leasing can more quickly result in a finished facility and because it provides VA flexibility to relocate at the end of the lease term, which is limited to 20 years. In fact, VA cited flexibility to move in all of its major medical lease proposals since 2015, including some in which VA estimated the construction of its own facility would be less costly.    According to VA, moving supports changing priorities such as meeting requirements for veterans access and changing security and compliance standards. As we have noted in our past work, disposing of federally owned facilities can be difficult, suggesting a certain level of support for VA's argument for this flexibility. However, VA does not assess whether or how it has actually benefited from this flexibility when justifying its leases.    In our June report, we recommended that VA annually assess how it has used the flexibility afforded by leasing and provide this information to Congress in its annual budget submission. Doing so would enhance the transparency of VA's decisionmaking and provide Congress with important information it needs for authorizing and funding decisions. VA agreed and plans to do this moving forward.    Turning to VA's cost estimating process for leases, we found VA's process met several but not all of GAO's standards for reliable cost estimates.    In particular, VA's process was comprehensive and well-documented, but it did not account for common and sometimes large variations between the estimate and actual facility cost. In fact, for 18 of the 23 leases we reviewed, the actual lease costs were at a minimum 15 percent above or below the initially proposed lease cost usually because of changes to proposed design.    For example, actual cost for VA's San Francisco facility were 26 percent over the estimated cost while actual cost for the Montgomery, Alabama, facility were 44 percent below the original estimate. Providing Congress with more accurate estimates would support its authorization in funding decisions.    Accordingly, VA recently issued a new design guide to reduce the risk of changes after proposing leases to Congress as well as a lessons-learned study to identify improvements for its cost estimating process. However, it is still early, and the success of these initiatives or leases currently in the pipeline will depend on how well VA implements them.    Lastly, we found that VA has made progress meeting GSA requirements for delegated leasing authority. For example, as a result of VA's new training and management review process, GSA is now able to approve VA's proposals more quickly. However, few of VA's high-cost leases have gone through GSA's approval process, and their complexity can make it more difficult to align with GSA's requirements.    In closing, VA should begin implementing our recommendations by collecting the information it needs to assess how it has used the flexibilities afforded by leasing. Doing so will enhance the transparency of VA's decisionmaking process and provide both VA and Congress with data to make the most informed decisions.    VA should also monitor whether its recent changes such as the design guide, lesson learned, and management review process are working as intended so they can make timely adjustments if necessary.    Thank you, Mr. Chairman. This ends my prepared statement, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony.    Mr. Sullivan, you may proceed.</t>
   </si>
   <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sullivan. Good morning, Mr. Chairman Barletta, Ranking Member Carson, and members of the subcommittee. I am happy to be here today to discuss how VA provides critically needed healthcare services to veterans through a wide variety of leased facilities. The Department maintains approximately 155 million square feet in more than 6,000 owned buildings as well as 33,000 acres of land. In addition to our own facilities, VA has approximately 2,000 leased facilities totaling 25 million square feet.    VA's portfolio is one of the largest in the Federal Government and provides a significant amount of health care to veterans in these leased facilities. In our leased facilities, we provide primary care, mental health, and specialty services, such as ophthalmology, oncology, endocrinology, cardiology, pulmonology, podiatry, neurology, just to name a few.    We also provide pharmacy services, radiology and imaging and same-day outpatient surgery in some of our larger clinics.    Today, I ask for your support to help provide these services to our veterans. VA is requesting the committee's approval of eight pending leases that represent an additional capacity over 1.2 million annual visits to these clinics for our veterans. These eight leases are needed to ensure that VA has the right sized facilities in place to serve veterans with the right services and in the right locations where veterans want them.    Leasing is a critically important tool that allows VA to provide services to veterans. Leasing provides flexibility in lieu of constructing owned assets to meet veterans needs. Leasing enables VA to quickly respond to healthcare advances and to adopt important--more importantly, to changing medical technology in order to provide state-of-the-art health care to veterans. Meeting the ever-changing pace of medical advancement is a constant challenge for any medical system, and VA finds that leasing versus owning provides one of the most flexible approaches to meet that challenge. Leasing also allows us to rapidly adjust to current and future demographic shifts in changing service demands for our veterans.    VA clearly doesn't need more owned legacy assets to address our outpatient access needs. We have enough of old and obsolete facilities, we do not want to add any more to our current portfolio.    For leasing, VA has the ability when these assets become unneeded or obsolete or do not meet current medical practices to walk away at the end of the lease term. In addition to these 8 leases we are requesting the committee's action on, VA has 24 additional medical leases that are pending congressional action. These critically needed leases will replace, expand, or create new outpatient clinics, research facilities, and provide more than 2.7 million more annual healthcare visits for our veterans and enhance our research capabilities nationwide.    As VA works to meet the challenge of addressing these changing and ongoing demand of health care, these leases, both the eight we mentioned earlier on and the 24, will go a great way to help meet these needs.    As you were aware, VA relies on the authority and has for the last 20 years that is delegated from GSA to enter into all lease agreements. VA depends on its partnership with GSA to obtain individual delegations, to make operating leases feasible to provide services. Our agencies have worked to make improvements, and the delegation process has evolved over the last 2 years.    I want to thank GSA for their partnership and their help in having us move forward with these leases and to provide services to our veterans. They have been more than a willing partner in this effort.    VA is also pleased that GAO in its 2016 report recognized the important need for medical leasing and the flexibility that leasing provides VA. As stated in the report, GAO recognized that leasing allows VA to align its infrastructure more easily with changing healthcare needs. The report highlights some of the improvements VA has made while operating under the GSA lease delegation process and suggests other agencies can implement other processes.    VA fully plans to address the GAO recommendations in terms of further articulating in our budget submissions to Congress via advantages of the flexibility leasing provides, as well as addressing some of the technical recommendations involving cost estimating.    We have agreed to do that and are working with the lessons learned effort to implement and consult with GAO as we implement those recommendations.    As VA works to move the pending leases forward, VA is open to any and all suggestion from the committee or from anyone else of how we can improve your process so we can speed the delivery of healthcare services to our veterans and their families.    I am here with my colleagues to answer any question that you may have or any member of the committee may have. Thank you for your time, and we appreciate the committee's support for our veterans and their needs.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you. Thank you for your testimony.    Mr. Wisner, you may proceed.</t>
   </si>
   <si>
+    <t>Wisner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wisner. Yes, sir.    Good morning, Chairman Barletta, Ranking Member Carson, and members of the committee. I am Chris Wisner, the Assistant Commissioner for Leasing at the General Services Administration Public Buildings Service. I appreciate being invited here today to discuss GSA's efforts to provide cost effective and suitable leased space for our partner Federal agencies including the Department of Veterans Affairs.    GSA's mission is to provide the best value in real estate to the Government and to the American people. GSA currently manages an inventory of almost 400 million square feet. Approximately half of this is leased space comprising more than 8,300 active leases across the country. GSA seeks to provide space that assists our partner agencies in achieving their missions while best serving the public interest. GSA's prospectus process starts with requirements development where GSA works with customer agencies to define their space needs. As part of the administration's goal to maximize the use of Federal assets and eliminate unneeded and excess real estate, GSA first looks to the existing Federal inventory of owned and leased space to meet those needs. If existing space is not available, GSA determines whether Federal construction or leasing is the appropriate space delivery method. This determination balances the mission needs of the customer, market parameters, resources constraints, and fiscal responsibility to the public.    If leasing is the chosen alternative, GSA continues to work with partner agencies to further define its program requirements, which includes a comprehensive housing plan, identification of delineated area, and an estimated space utilization rate. The prospectus process also requires market research to establish rental rates. GSA conducts its procurements using prevailing market rates as the benchmark for the evaluation of competitive offers to ensure that GSA rates are in line with the private sector.    After we complete this thorough process, GSA submits a prospectus and supporting documents for projects that exceed $2.85 million.    In 2014, the VA began relying exclusively on GSA's delegated authority to conduct its leasing activities. Some of the VA's request for delegated leasing authority are above the GSA's prospectus threshold. GSA will submit prospectuses to this committee and to the Senate Environment and Public Works Committee.    The initial delegation request from VA required a number of revisions to comply with GSA's delegation program requirements both in form and substance. As delegation requests above GSA's prospectus threshold were not within the normal delegation program management, there was no standing GSA process for considering such an authorization. GSA and the VA have worked together to ensure VA's documents are in line with similar GSA prospectus submissions.    GSA supports VA's mission to provide assistance to veterans and their families. From June of 2014 to September of 2016, GSA has granted the VA 761 leased delegations, of which 96 percent have been granted routinely under GSA's standing delegation program. Only 4 percent, or 27 of those delegated leases, have exceeded the square foot limitation that requires action by the GSA Administrator. Only 6 of those 27 exceed the $2.87 million prospectus threshold.    The Choice Act was enacted in 2014 to provide new authorities and funding to continue VA's mission, including statutorily authorizing the Secretary of Veterans Affairs to lease medical facilities in 18 States and Puerto Rico. Out of these 27, there are 8 remaining that are above GSA prospectus threshold. The committee's help is needed in providing GSA with resolutions for those projects, and we plan to submit this package in the upcoming weeks.    As we move forward in our partnership, VA and GSA are working closely to ensure VA projects comply with GSA's policies and practices. With VA's expertise, discipline and structure can be applied to market rate justification for VA prospectuses. Furthermore, as part of strategic planning, VA and GSA can identify opportunities for VA to backfill existing underutilized and vacant space instead of initiating new leased actions.    Chairman Barletta, Ranking Member Carson, and members of the subcommittee, GSA is dedicated to meeting the requirements of all of our partner agencies in an efficient, transparent, and user-friendly manner. We will continue to support the VA in their mission of providing assistance to veterans and their families.    Thank you for the opportunity to testify before you today, and I am happy to answer any questions.</t>
   </si>
   <si>
@@ -145,6 +169,12 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank you for your leadership.    Thank you each of you for being here.    So, Mr. Sullivan, let me come to you, because I guess I am a little confused when Ms. Shea says that the flexibility is a big issue for you signing up for leases. And yet, you have not, to date, provided that kind of information.</t>
   </si>
   <si>
@@ -229,6 +259,9 @@
     <t xml:space="preserve">    Mr. Barletta. And that is why we have to reform our disposal rules, and we have that in our bill. And the second thing is we also in our bill have a discounted purchase option which would allow you to buy, so I think they are very good points by Mr. Meadows.    The Chair now recognizes Ms. Brownley for 5 minutes.</t>
   </si>
   <si>
+    <t>Brownley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman. I appreciate it. Thank you. And thank you, Ranking Member Carson, for allowing me to participate in this morning's hearing.    As the ranking member of the House Committee on Veterans' Affairs Subcommittee on Health, I have been working for several years now to address problems in the VA's construction and leasing program. As we all know, changes in CBO's scoring have made it incredibly difficult for the VA Committee to authorize new facilities. This is not only frustrating to me as a Member of Congress, but it is having a very negative impact on veterans who are underserved.    This is not just about better access, but it is truly a clarion call for equitable access for all of our veterans. I have brought a list today that I would love to share with the committee of 24 leases still caught in limbo for fiscal year 2015 and fiscal year 2017. These are 24 communities in 15 different States all across the country where veterans are underserved and where veterans sorely need better access to health care and are not receiving it. I am frustrated that Congress has not yet resolved this issue that has dragged on for several years now, an issue I think is a moral imperative and unquestionably an equity issue.    I have introduced legislation to permanently fix this problem and to harmonize the VA leasing process with the GSA leasing process. This small procedure will make a big difference in the lives of veterans who are waiting for and rightfully deserve better access to care.    That brings me to my first question. Last year, the VA Committee held a hearing on my bill, the Build a Better VA Act. At the time, VA was not prepared to answer specific questions regarding the administration's position on the bill. My bill has been endorsed by several VSO's and the Commission on Care has identified this as an area that needs to be addressed by the VA.    So, Mr. Sullivan, has the VA now had time to review my bill, and does the VA support this approach? And if you don't, what is the VA's proposed long-term solution to addressing this ongoing problem that we have with authorizing the facilities?</t>
   </si>
   <si>
@@ -256,6 +289,12 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    Before I got here, I used to be a real estate lawyer, and I used to negotiate leases. And it was not necessarily a fun endeavor, but I did learn that it is very value added. And I do think that the questions today are largely oriented towards improving the efficacy of the leasing process, and that is what we want to see. We just don't want to see us paying more money than we should pay in a lease. And I think we also want a cleaner analysis on, to Mr. Meadows's point, the valuation between an outright purchase and--or build to suit versus a 20-year lease.    And in looking, Ms. Shea, at your analysis here, it strikes me that the issue that the VA is deficient in, relative to this analysis, comes under the credible characteristic and, most specifically, the conduct risk and uncertainty analysis.    And I find that to be consistent with the conclusion without analysis criticism that we say, oh, it provides more flexibility and so, therefore, we should do it. I happen to think that it, in a lot of instances, leasing a medical facility probably is the more prudent cost, because unlike a lot of other real estate assets and office building, certainly raw ground, with a medical facility, there is a functional obsolescence after 20 years. And that you do run into negative equity much quicker. I mean, in my home township, we have an old mental health facility that, you know, 20 years later it was still there, and it was negative $8 million on an appraisal.    So for Mr. Sullivan, what I would like to hear from you is what do you intend to do to address the shoring up the risk and uncertainty analysis, which I think will go a long way toward addressing Ms. Shea's report where the VA is deficient? The other question that I would have for you, Mr. Sullivan, is contained on page 10 of Ms. Shea's report which references the fact that the VA plans to conduct a, quote, ``lessons-learned study that could further improve how VA estimates its costs.''    And the final point I would make, and then I will turn it over to all of you, is those of us who serve on the VA Committee, and I think even beyond that, the delivery model for caring for veterans is changing very rapidly, telehealth. We have a facility in my district where a lot more is done that way. And we look at the way e-health is able to provide services. It just doesn't require as much physical space. And some of it is space that once built can remain flex space.    So I would ask for your take on that. And I think that that is part of the risk that I mentioned.    And in the final question I have for you, Mr. Sullivan--I am sort of doing it all at once is, the report that McKinsey issued in 2015 found that for larger built-to-suit medical facilities, VA rents were 40 to 50 percent higher than private sector benchmarks. I think that that brings back into the fold of Mr. Meadows's point on, well, why don't we just do a build--I mean, why not build to suit and own it if you are going to be paying 40 to 50 percent higher? It is one thing if at the end of 15 or 20 years, it's like, OK. We paid for it, and now we are at zero and we have a facility, and maybe it is worth something, maybe it is not. It is a whole other thing when you are paying 40 to 50 percent over and above.    Then the final point, I am not so keen on--I mean, we have enough examples on the VA Committee where VA construction projects end up a whole heck a lot higher than they should, which I think, points again, to leasing versus building. If it is a 50-50 proposition, I think I would probably lean towards the leasing.    I have said a lot. I turn it over to you for your comments on my comments.</t>
   </si>
   <si>
@@ -289,6 +328,12 @@
     <t>412641</t>
   </si>
   <si>
+    <t>Rouzer</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rouzer. Thank you very much, Mr. Chairman.    And I want to follow up on my colleague, Representative Costello's questions and your answer there.    I have a specific case, in Wilmington, North Carolina, where we have our Wilmington VA clinic, basically, a brand new building. There is a lot of concern among constituents and my veterans in particular, about the--what they feel is an outrageous figure that we are paying for that space, roughly to the tune of $300,000 a month.    Now, I heard your answer there at the very end to Representative Costello where you are saying--when you compare the prime medical space elsewhere, it is not necessarily apples to apples, perhaps apples to oranges. But when you consider the fact that it is $300,000 a month, and the vast majority of my constituents, they are probably thinking in terms of a 30-year mortgage, and that is far and above the average 30-year mortgage in my district. So there are a lot of questions about, you know, how do we negotiate these leases, and are we just absolutely being raked over the coals with this?    So if you can elaborate more on how you go through what that process actually is.    And I am curious where GSA fits into this. Who actually negotiates the lease? Is it GSA and with--in consultation with the VA, or is it the VA with advice from GSA? If you can explain how that works, I would be interested.</t>
   </si>
   <si>
@@ -317,6 +362,12 @@
   </si>
   <si>
     <t>412503</t>
+  </si>
+  <si>
+    <t>Massie</t>
+  </si>
+  <si>
+    <t>Thomas</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman. Last week Chairman Mica had a good hearing about property and assets and how difficult it is for us to dispose of them or turn them over back to the private sector, so I can definitely see the benefits of leasing, but I left that hearing with a question and I still have that question in this hearing--it seems to be coming up--which is how good is our database of properties, leased and owned? Because some of the questions we are asking today we could answer ourselves if we could get on a computer and just query the database. We wouldn't even have to show up to get some of these apples and oranges questions answered. We could go into that database.    Mr. Sullivan, let me ask you first. How close are we to having a full database of all the properties that, for instance, congressional staff could look at?</t>
@@ -770,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +829,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,2837 +851,3318 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>51</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>51</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G56" t="s">
+        <v>51</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>116</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G93" t="s">
+        <v>116</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G95" t="s">
+        <v>116</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>25</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>90</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G108" t="s">
+        <v>104</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G110" t="s">
+        <v>104</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>90</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G112" t="s">
+        <v>104</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>90</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G114" t="s">
+        <v>104</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>90</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G116" t="s">
+        <v>104</v>
+      </c>
       <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>25</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>90</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G118" t="s">
+        <v>104</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21647.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21647.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Barletta</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412258</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Carson</t>
   </si>
   <si>
@@ -167,6 +176,9 @@
   </si>
   <si>
     <t>412552</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Meadows</t>
@@ -821,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,3315 +866,3560 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G78" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G81" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G83" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G85" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H87" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G93" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G108" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H108" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G110" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H110" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G112" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H112" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G114" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H114" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G116" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H116" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G118" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H118" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
